--- a/Data/phenotypic data/RawData/2013 Data/BogUpper5-R8.xlsx
+++ b/Data/phenotypic data/RawData/2013 Data/BogUpper5-R8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="25440" windowHeight="18140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,11 +1306,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="V784" sqref="V784"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1725,10 +1725,10 @@
       <c r="L4" s="13"/>
       <c r="M4" s="12"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="45"/>
+      <c r="O4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="44"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="11"/>
       <c r="S4" s="16"/>
@@ -1749,11 +1749,11 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3454,10 +3454,10 @@
       <c r="L33" s="13"/>
       <c r="M33" s="12"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="45"/>
+      <c r="O33" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="44"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="11"/>
       <c r="S33" s="16"/>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="44" t="s">
+      <c r="K34" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
       <c r="N34" s="20" t="s">
         <v>5</v>
       </c>
@@ -5167,10 +5167,10 @@
       <c r="L62" s="13"/>
       <c r="M62" s="12"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P62" s="45"/>
+      <c r="O62" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="44"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="11"/>
       <c r="S62" s="16"/>
@@ -5191,11 +5191,11 @@
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="44" t="s">
+      <c r="K63" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
       <c r="N63" s="20" t="s">
         <v>5</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>23.2</v>
       </c>
       <c r="M67" s="34">
-        <v>870</v>
+        <v>0.87</v>
       </c>
       <c r="N67" s="35">
         <v>2.5</v>
@@ -6883,10 +6883,10 @@
       <c r="L91" s="13"/>
       <c r="M91" s="12"/>
       <c r="N91" s="14"/>
-      <c r="O91" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P91" s="45"/>
+      <c r="O91" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P91" s="44"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="11"/>
       <c r="S91" s="16"/>
@@ -6907,11 +6907,11 @@
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="44" t="s">
+      <c r="K92" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
       <c r="N92" s="20" t="s">
         <v>5</v>
       </c>
@@ -8597,10 +8597,10 @@
       <c r="L120" s="13"/>
       <c r="M120" s="12"/>
       <c r="N120" s="14"/>
-      <c r="O120" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P120" s="45"/>
+      <c r="O120" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P120" s="44"/>
       <c r="Q120" s="15"/>
       <c r="R120" s="11"/>
       <c r="S120" s="16"/>
@@ -8621,11 +8621,11 @@
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="18"/>
-      <c r="K121" s="44" t="s">
+      <c r="K121" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L121" s="44"/>
-      <c r="M121" s="44"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
       <c r="N121" s="20" t="s">
         <v>5</v>
       </c>
@@ -10312,10 +10312,10 @@
       <c r="L149" s="13"/>
       <c r="M149" s="12"/>
       <c r="N149" s="14"/>
-      <c r="O149" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P149" s="45"/>
+      <c r="O149" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P149" s="44"/>
       <c r="Q149" s="15"/>
       <c r="R149" s="11"/>
       <c r="S149" s="16"/>
@@ -10336,11 +10336,11 @@
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="18"/>
-      <c r="K150" s="44" t="s">
+      <c r="K150" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L150" s="44"/>
-      <c r="M150" s="44"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="45"/>
       <c r="N150" s="20" t="s">
         <v>5</v>
       </c>
@@ -12028,10 +12028,10 @@
       <c r="L178" s="13"/>
       <c r="M178" s="12"/>
       <c r="N178" s="14"/>
-      <c r="O178" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P178" s="45"/>
+      <c r="O178" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P178" s="44"/>
       <c r="Q178" s="15"/>
       <c r="R178" s="11"/>
       <c r="S178" s="16"/>
@@ -12052,11 +12052,11 @@
       </c>
       <c r="I179" s="11"/>
       <c r="J179" s="18"/>
-      <c r="K179" s="44" t="s">
+      <c r="K179" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L179" s="44"/>
-      <c r="M179" s="44"/>
+      <c r="L179" s="45"/>
+      <c r="M179" s="45"/>
       <c r="N179" s="20" t="s">
         <v>5</v>
       </c>
@@ -13705,10 +13705,10 @@
       <c r="L207" s="13"/>
       <c r="M207" s="12"/>
       <c r="N207" s="14"/>
-      <c r="O207" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P207" s="45"/>
+      <c r="O207" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P207" s="44"/>
       <c r="Q207" s="15"/>
       <c r="R207" s="11"/>
       <c r="S207" s="16"/>
@@ -13729,11 +13729,11 @@
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="18"/>
-      <c r="K208" s="44" t="s">
+      <c r="K208" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L208" s="44"/>
-      <c r="M208" s="44"/>
+      <c r="L208" s="45"/>
+      <c r="M208" s="45"/>
       <c r="N208" s="20" t="s">
         <v>5</v>
       </c>
@@ -15419,10 +15419,10 @@
       <c r="L236" s="13"/>
       <c r="M236" s="12"/>
       <c r="N236" s="14"/>
-      <c r="O236" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P236" s="45"/>
+      <c r="O236" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P236" s="44"/>
       <c r="Q236" s="15"/>
       <c r="R236" s="11"/>
       <c r="S236" s="16"/>
@@ -15443,11 +15443,11 @@
       </c>
       <c r="I237" s="11"/>
       <c r="J237" s="18"/>
-      <c r="K237" s="44" t="s">
+      <c r="K237" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L237" s="44"/>
-      <c r="M237" s="44"/>
+      <c r="L237" s="45"/>
+      <c r="M237" s="45"/>
       <c r="N237" s="20" t="s">
         <v>5</v>
       </c>
@@ -17132,10 +17132,10 @@
       <c r="L265" s="13"/>
       <c r="M265" s="12"/>
       <c r="N265" s="14"/>
-      <c r="O265" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P265" s="45"/>
+      <c r="O265" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P265" s="44"/>
       <c r="Q265" s="15"/>
       <c r="R265" s="11"/>
       <c r="S265" s="16"/>
@@ -17156,11 +17156,11 @@
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="18"/>
-      <c r="K266" s="44" t="s">
+      <c r="K266" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L266" s="44"/>
-      <c r="M266" s="44"/>
+      <c r="L266" s="45"/>
+      <c r="M266" s="45"/>
       <c r="N266" s="20" t="s">
         <v>5</v>
       </c>
@@ -18858,10 +18858,10 @@
       <c r="L294" s="13"/>
       <c r="M294" s="12"/>
       <c r="N294" s="14"/>
-      <c r="O294" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P294" s="45"/>
+      <c r="O294" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P294" s="44"/>
       <c r="Q294" s="15"/>
       <c r="R294" s="11"/>
       <c r="S294" s="16"/>
@@ -18882,11 +18882,11 @@
       </c>
       <c r="I295" s="11"/>
       <c r="J295" s="18"/>
-      <c r="K295" s="44" t="s">
+      <c r="K295" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L295" s="44"/>
-      <c r="M295" s="44"/>
+      <c r="L295" s="45"/>
+      <c r="M295" s="45"/>
       <c r="N295" s="20" t="s">
         <v>5</v>
       </c>
@@ -20584,10 +20584,10 @@
       <c r="L323" s="13"/>
       <c r="M323" s="12"/>
       <c r="N323" s="14"/>
-      <c r="O323" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P323" s="45"/>
+      <c r="O323" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P323" s="44"/>
       <c r="Q323" s="15"/>
       <c r="R323" s="11"/>
       <c r="S323" s="16"/>
@@ -20608,11 +20608,11 @@
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="18"/>
-      <c r="K324" s="44" t="s">
+      <c r="K324" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L324" s="44"/>
-      <c r="M324" s="44"/>
+      <c r="L324" s="45"/>
+      <c r="M324" s="45"/>
       <c r="N324" s="20" t="s">
         <v>5</v>
       </c>
@@ -22312,10 +22312,10 @@
       <c r="L352" s="13"/>
       <c r="M352" s="12"/>
       <c r="N352" s="14"/>
-      <c r="O352" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P352" s="45"/>
+      <c r="O352" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P352" s="44"/>
       <c r="Q352" s="15"/>
       <c r="R352" s="11"/>
       <c r="S352" s="16"/>
@@ -22336,11 +22336,11 @@
       </c>
       <c r="I353" s="11"/>
       <c r="J353" s="18"/>
-      <c r="K353" s="44" t="s">
+      <c r="K353" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L353" s="44"/>
-      <c r="M353" s="44"/>
+      <c r="L353" s="45"/>
+      <c r="M353" s="45"/>
       <c r="N353" s="20" t="s">
         <v>5</v>
       </c>
@@ -24038,10 +24038,10 @@
       <c r="L381" s="13"/>
       <c r="M381" s="12"/>
       <c r="N381" s="14"/>
-      <c r="O381" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P381" s="45"/>
+      <c r="O381" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P381" s="44"/>
       <c r="Q381" s="15"/>
       <c r="R381" s="11"/>
       <c r="S381" s="16"/>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="18"/>
-      <c r="K382" s="44" t="s">
+      <c r="K382" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L382" s="44"/>
-      <c r="M382" s="44"/>
+      <c r="L382" s="45"/>
+      <c r="M382" s="45"/>
       <c r="N382" s="20" t="s">
         <v>5</v>
       </c>
@@ -25764,10 +25764,10 @@
       <c r="L410" s="13"/>
       <c r="M410" s="12"/>
       <c r="N410" s="14"/>
-      <c r="O410" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P410" s="45"/>
+      <c r="O410" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P410" s="44"/>
       <c r="Q410" s="15"/>
       <c r="R410" s="11"/>
       <c r="S410" s="16"/>
@@ -25788,11 +25788,11 @@
       </c>
       <c r="I411" s="11"/>
       <c r="J411" s="18"/>
-      <c r="K411" s="44" t="s">
+      <c r="K411" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L411" s="44"/>
-      <c r="M411" s="44"/>
+      <c r="L411" s="45"/>
+      <c r="M411" s="45"/>
       <c r="N411" s="20" t="s">
         <v>5</v>
       </c>
@@ -27490,10 +27490,10 @@
       <c r="L439" s="13"/>
       <c r="M439" s="12"/>
       <c r="N439" s="14"/>
-      <c r="O439" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P439" s="45"/>
+      <c r="O439" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P439" s="44"/>
       <c r="Q439" s="15"/>
       <c r="R439" s="11"/>
       <c r="S439" s="16"/>
@@ -27514,11 +27514,11 @@
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="18"/>
-      <c r="K440" s="44" t="s">
+      <c r="K440" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L440" s="44"/>
-      <c r="M440" s="44"/>
+      <c r="L440" s="45"/>
+      <c r="M440" s="45"/>
       <c r="N440" s="20" t="s">
         <v>5</v>
       </c>
@@ -29215,10 +29215,10 @@
       <c r="L468" s="13"/>
       <c r="M468" s="12"/>
       <c r="N468" s="14"/>
-      <c r="O468" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P468" s="45"/>
+      <c r="O468" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P468" s="44"/>
       <c r="Q468" s="15"/>
       <c r="R468" s="11"/>
       <c r="S468" s="16"/>
@@ -29239,11 +29239,11 @@
       </c>
       <c r="I469" s="11"/>
       <c r="J469" s="18"/>
-      <c r="K469" s="44" t="s">
+      <c r="K469" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L469" s="44"/>
-      <c r="M469" s="44"/>
+      <c r="L469" s="45"/>
+      <c r="M469" s="45"/>
       <c r="N469" s="20" t="s">
         <v>5</v>
       </c>
@@ -30941,10 +30941,10 @@
       <c r="L497" s="13"/>
       <c r="M497" s="12"/>
       <c r="N497" s="14"/>
-      <c r="O497" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P497" s="45"/>
+      <c r="O497" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P497" s="44"/>
       <c r="Q497" s="15"/>
       <c r="R497" s="11"/>
       <c r="S497" s="16"/>
@@ -30965,11 +30965,11 @@
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="18"/>
-      <c r="K498" s="44" t="s">
+      <c r="K498" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L498" s="44"/>
-      <c r="M498" s="44"/>
+      <c r="L498" s="45"/>
+      <c r="M498" s="45"/>
       <c r="N498" s="20" t="s">
         <v>5</v>
       </c>
@@ -32667,10 +32667,10 @@
       <c r="L526" s="13"/>
       <c r="M526" s="12"/>
       <c r="N526" s="14"/>
-      <c r="O526" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P526" s="45"/>
+      <c r="O526" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P526" s="44"/>
       <c r="Q526" s="15"/>
       <c r="R526" s="11"/>
       <c r="S526" s="16"/>
@@ -32691,11 +32691,11 @@
       </c>
       <c r="I527" s="11"/>
       <c r="J527" s="18"/>
-      <c r="K527" s="44" t="s">
+      <c r="K527" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L527" s="44"/>
-      <c r="M527" s="44"/>
+      <c r="L527" s="45"/>
+      <c r="M527" s="45"/>
       <c r="N527" s="20" t="s">
         <v>5</v>
       </c>
@@ -34393,10 +34393,10 @@
       <c r="L555" s="13"/>
       <c r="M555" s="12"/>
       <c r="N555" s="14"/>
-      <c r="O555" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P555" s="45"/>
+      <c r="O555" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P555" s="44"/>
       <c r="Q555" s="15"/>
       <c r="R555" s="11"/>
       <c r="S555" s="16"/>
@@ -34417,11 +34417,11 @@
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="18"/>
-      <c r="K556" s="44" t="s">
+      <c r="K556" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L556" s="44"/>
-      <c r="M556" s="44"/>
+      <c r="L556" s="45"/>
+      <c r="M556" s="45"/>
       <c r="N556" s="20" t="s">
         <v>5</v>
       </c>
@@ -36118,10 +36118,10 @@
       <c r="L584" s="13"/>
       <c r="M584" s="12"/>
       <c r="N584" s="14"/>
-      <c r="O584" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P584" s="45"/>
+      <c r="O584" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P584" s="44"/>
       <c r="Q584" s="15"/>
       <c r="R584" s="11"/>
       <c r="S584" s="16"/>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="I585" s="11"/>
       <c r="J585" s="18"/>
-      <c r="K585" s="44" t="s">
+      <c r="K585" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L585" s="44"/>
-      <c r="M585" s="44"/>
+      <c r="L585" s="45"/>
+      <c r="M585" s="45"/>
       <c r="N585" s="20" t="s">
         <v>5</v>
       </c>
@@ -37844,10 +37844,10 @@
       <c r="L613" s="13"/>
       <c r="M613" s="12"/>
       <c r="N613" s="14"/>
-      <c r="O613" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P613" s="45"/>
+      <c r="O613" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P613" s="44"/>
       <c r="Q613" s="15"/>
       <c r="R613" s="11"/>
       <c r="S613" s="16"/>
@@ -37868,11 +37868,11 @@
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="18"/>
-      <c r="K614" s="44" t="s">
+      <c r="K614" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L614" s="44"/>
-      <c r="M614" s="44"/>
+      <c r="L614" s="45"/>
+      <c r="M614" s="45"/>
       <c r="N614" s="20" t="s">
         <v>5</v>
       </c>
@@ -39570,10 +39570,10 @@
       <c r="L642" s="13"/>
       <c r="M642" s="12"/>
       <c r="N642" s="14"/>
-      <c r="O642" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P642" s="45"/>
+      <c r="O642" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P642" s="44"/>
       <c r="Q642" s="15"/>
       <c r="R642" s="11"/>
       <c r="S642" s="16"/>
@@ -39594,11 +39594,11 @@
       </c>
       <c r="I643" s="11"/>
       <c r="J643" s="18"/>
-      <c r="K643" s="44" t="s">
+      <c r="K643" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L643" s="44"/>
-      <c r="M643" s="44"/>
+      <c r="L643" s="45"/>
+      <c r="M643" s="45"/>
       <c r="N643" s="20" t="s">
         <v>5</v>
       </c>
@@ -41296,10 +41296,10 @@
       <c r="L671" s="13"/>
       <c r="M671" s="12"/>
       <c r="N671" s="14"/>
-      <c r="O671" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P671" s="45"/>
+      <c r="O671" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P671" s="44"/>
       <c r="Q671" s="15"/>
       <c r="R671" s="11"/>
       <c r="S671" s="16"/>
@@ -41320,11 +41320,11 @@
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="18"/>
-      <c r="K672" s="44" t="s">
+      <c r="K672" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L672" s="44"/>
-      <c r="M672" s="44"/>
+      <c r="L672" s="45"/>
+      <c r="M672" s="45"/>
       <c r="N672" s="20" t="s">
         <v>5</v>
       </c>
@@ -43022,10 +43022,10 @@
       <c r="L700" s="13"/>
       <c r="M700" s="12"/>
       <c r="N700" s="14"/>
-      <c r="O700" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P700" s="45"/>
+      <c r="O700" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P700" s="44"/>
       <c r="Q700" s="15"/>
       <c r="R700" s="11"/>
       <c r="S700" s="16"/>
@@ -43046,11 +43046,11 @@
       </c>
       <c r="I701" s="11"/>
       <c r="J701" s="18"/>
-      <c r="K701" s="44" t="s">
+      <c r="K701" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L701" s="44"/>
-      <c r="M701" s="44"/>
+      <c r="L701" s="45"/>
+      <c r="M701" s="45"/>
       <c r="N701" s="20" t="s">
         <v>5</v>
       </c>
@@ -44795,10 +44795,10 @@
       <c r="L729" s="13"/>
       <c r="M729" s="12"/>
       <c r="N729" s="14"/>
-      <c r="O729" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P729" s="45"/>
+      <c r="O729" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P729" s="44"/>
       <c r="Q729" s="15"/>
       <c r="R729" s="11"/>
       <c r="S729" s="16"/>
@@ -44819,11 +44819,11 @@
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="18"/>
-      <c r="K730" s="44" t="s">
+      <c r="K730" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L730" s="44"/>
-      <c r="M730" s="44"/>
+      <c r="L730" s="45"/>
+      <c r="M730" s="45"/>
       <c r="N730" s="20" t="s">
         <v>5</v>
       </c>
@@ -46524,10 +46524,10 @@
       <c r="L758" s="13"/>
       <c r="M758" s="12"/>
       <c r="N758" s="14"/>
-      <c r="O758" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P758" s="45"/>
+      <c r="O758" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P758" s="44"/>
       <c r="Q758" s="15"/>
       <c r="R758" s="11"/>
       <c r="S758" s="16"/>
@@ -46548,11 +46548,11 @@
       </c>
       <c r="I759" s="11"/>
       <c r="J759" s="18"/>
-      <c r="K759" s="44" t="s">
+      <c r="K759" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L759" s="44"/>
-      <c r="M759" s="44"/>
+      <c r="L759" s="45"/>
+      <c r="M759" s="45"/>
       <c r="N759" s="20" t="s">
         <v>5</v>
       </c>
@@ -48205,6 +48205,78 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="O236:P236"/>
+    <mergeCell ref="K237:M237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="O265:P265"/>
+    <mergeCell ref="K266:M266"/>
+    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="K295:M295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O323:P323"/>
+    <mergeCell ref="K324:M324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="K353:M353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="O381:P381"/>
+    <mergeCell ref="K382:M382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="K411:M411"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="K440:M440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="O468:P468"/>
+    <mergeCell ref="K469:M469"/>
+    <mergeCell ref="Q469:R469"/>
+    <mergeCell ref="O497:P497"/>
+    <mergeCell ref="K498:M498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="O526:P526"/>
+    <mergeCell ref="K527:M527"/>
+    <mergeCell ref="Q527:R527"/>
+    <mergeCell ref="O555:P555"/>
+    <mergeCell ref="K556:M556"/>
+    <mergeCell ref="Q556:R556"/>
+    <mergeCell ref="O584:P584"/>
+    <mergeCell ref="K585:M585"/>
+    <mergeCell ref="Q585:R585"/>
+    <mergeCell ref="O613:P613"/>
+    <mergeCell ref="K614:M614"/>
+    <mergeCell ref="Q614:R614"/>
+    <mergeCell ref="O642:P642"/>
+    <mergeCell ref="K643:M643"/>
+    <mergeCell ref="Q643:R643"/>
+    <mergeCell ref="O671:P671"/>
+    <mergeCell ref="K672:M672"/>
+    <mergeCell ref="Q672:R672"/>
     <mergeCell ref="O758:P758"/>
     <mergeCell ref="K759:M759"/>
     <mergeCell ref="Q759:R759"/>
@@ -48214,78 +48286,6 @@
     <mergeCell ref="O729:P729"/>
     <mergeCell ref="K730:M730"/>
     <mergeCell ref="Q730:R730"/>
-    <mergeCell ref="O642:P642"/>
-    <mergeCell ref="K643:M643"/>
-    <mergeCell ref="Q643:R643"/>
-    <mergeCell ref="O671:P671"/>
-    <mergeCell ref="K672:M672"/>
-    <mergeCell ref="Q672:R672"/>
-    <mergeCell ref="O584:P584"/>
-    <mergeCell ref="K585:M585"/>
-    <mergeCell ref="Q585:R585"/>
-    <mergeCell ref="O613:P613"/>
-    <mergeCell ref="K614:M614"/>
-    <mergeCell ref="Q614:R614"/>
-    <mergeCell ref="O526:P526"/>
-    <mergeCell ref="K527:M527"/>
-    <mergeCell ref="Q527:R527"/>
-    <mergeCell ref="O555:P555"/>
-    <mergeCell ref="K556:M556"/>
-    <mergeCell ref="Q556:R556"/>
-    <mergeCell ref="O468:P468"/>
-    <mergeCell ref="K469:M469"/>
-    <mergeCell ref="Q469:R469"/>
-    <mergeCell ref="O497:P497"/>
-    <mergeCell ref="K498:M498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="K411:M411"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="K440:M440"/>
-    <mergeCell ref="Q440:R440"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="K353:M353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="O381:P381"/>
-    <mergeCell ref="K382:M382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="K295:M295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O323:P323"/>
-    <mergeCell ref="K324:M324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="O236:P236"/>
-    <mergeCell ref="K237:M237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="O265:P265"/>
-    <mergeCell ref="K266:M266"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/phenotypic data/RawData/2013 Data/BogUpper5-R8.xlsx
+++ b/Data/phenotypic data/RawData/2013 Data/BogUpper5-R8.xlsx
@@ -1306,11 +1306,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="K475" sqref="K475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1725,10 +1725,10 @@
       <c r="L4" s="13"/>
       <c r="M4" s="12"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="44"/>
+      <c r="O4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="45"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="11"/>
       <c r="S4" s="16"/>
@@ -1749,11 +1749,11 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3454,10 +3454,10 @@
       <c r="L33" s="13"/>
       <c r="M33" s="12"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="44"/>
+      <c r="O33" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="45"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="11"/>
       <c r="S33" s="16"/>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="20" t="s">
         <v>5</v>
       </c>
@@ -5167,10 +5167,10 @@
       <c r="L62" s="13"/>
       <c r="M62" s="12"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P62" s="44"/>
+      <c r="O62" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="45"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="11"/>
       <c r="S62" s="16"/>
@@ -5191,11 +5191,11 @@
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="45" t="s">
+      <c r="K63" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="20" t="s">
         <v>5</v>
       </c>
@@ -6883,10 +6883,10 @@
       <c r="L91" s="13"/>
       <c r="M91" s="12"/>
       <c r="N91" s="14"/>
-      <c r="O91" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P91" s="44"/>
+      <c r="O91" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P91" s="45"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="11"/>
       <c r="S91" s="16"/>
@@ -6907,11 +6907,11 @@
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="45" t="s">
+      <c r="K92" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L92" s="45"/>
-      <c r="M92" s="45"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
       <c r="N92" s="20" t="s">
         <v>5</v>
       </c>
@@ -8597,10 +8597,10 @@
       <c r="L120" s="13"/>
       <c r="M120" s="12"/>
       <c r="N120" s="14"/>
-      <c r="O120" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P120" s="44"/>
+      <c r="O120" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P120" s="45"/>
       <c r="Q120" s="15"/>
       <c r="R120" s="11"/>
       <c r="S120" s="16"/>
@@ -8621,11 +8621,11 @@
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="18"/>
-      <c r="K121" s="45" t="s">
+      <c r="K121" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L121" s="45"/>
-      <c r="M121" s="45"/>
+      <c r="L121" s="44"/>
+      <c r="M121" s="44"/>
       <c r="N121" s="20" t="s">
         <v>5</v>
       </c>
@@ -10312,10 +10312,10 @@
       <c r="L149" s="13"/>
       <c r="M149" s="12"/>
       <c r="N149" s="14"/>
-      <c r="O149" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P149" s="44"/>
+      <c r="O149" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P149" s="45"/>
       <c r="Q149" s="15"/>
       <c r="R149" s="11"/>
       <c r="S149" s="16"/>
@@ -10336,11 +10336,11 @@
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="18"/>
-      <c r="K150" s="45" t="s">
+      <c r="K150" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L150" s="45"/>
-      <c r="M150" s="45"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="44"/>
       <c r="N150" s="20" t="s">
         <v>5</v>
       </c>
@@ -12028,10 +12028,10 @@
       <c r="L178" s="13"/>
       <c r="M178" s="12"/>
       <c r="N178" s="14"/>
-      <c r="O178" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P178" s="44"/>
+      <c r="O178" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P178" s="45"/>
       <c r="Q178" s="15"/>
       <c r="R178" s="11"/>
       <c r="S178" s="16"/>
@@ -12052,11 +12052,11 @@
       </c>
       <c r="I179" s="11"/>
       <c r="J179" s="18"/>
-      <c r="K179" s="45" t="s">
+      <c r="K179" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L179" s="45"/>
-      <c r="M179" s="45"/>
+      <c r="L179" s="44"/>
+      <c r="M179" s="44"/>
       <c r="N179" s="20" t="s">
         <v>5</v>
       </c>
@@ -13705,10 +13705,10 @@
       <c r="L207" s="13"/>
       <c r="M207" s="12"/>
       <c r="N207" s="14"/>
-      <c r="O207" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P207" s="44"/>
+      <c r="O207" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P207" s="45"/>
       <c r="Q207" s="15"/>
       <c r="R207" s="11"/>
       <c r="S207" s="16"/>
@@ -13729,11 +13729,11 @@
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="18"/>
-      <c r="K208" s="45" t="s">
+      <c r="K208" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L208" s="45"/>
-      <c r="M208" s="45"/>
+      <c r="L208" s="44"/>
+      <c r="M208" s="44"/>
       <c r="N208" s="20" t="s">
         <v>5</v>
       </c>
@@ -15419,10 +15419,10 @@
       <c r="L236" s="13"/>
       <c r="M236" s="12"/>
       <c r="N236" s="14"/>
-      <c r="O236" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P236" s="44"/>
+      <c r="O236" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P236" s="45"/>
       <c r="Q236" s="15"/>
       <c r="R236" s="11"/>
       <c r="S236" s="16"/>
@@ -15443,11 +15443,11 @@
       </c>
       <c r="I237" s="11"/>
       <c r="J237" s="18"/>
-      <c r="K237" s="45" t="s">
+      <c r="K237" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L237" s="45"/>
-      <c r="M237" s="45"/>
+      <c r="L237" s="44"/>
+      <c r="M237" s="44"/>
       <c r="N237" s="20" t="s">
         <v>5</v>
       </c>
@@ -17132,10 +17132,10 @@
       <c r="L265" s="13"/>
       <c r="M265" s="12"/>
       <c r="N265" s="14"/>
-      <c r="O265" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P265" s="44"/>
+      <c r="O265" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P265" s="45"/>
       <c r="Q265" s="15"/>
       <c r="R265" s="11"/>
       <c r="S265" s="16"/>
@@ -17156,11 +17156,11 @@
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="18"/>
-      <c r="K266" s="45" t="s">
+      <c r="K266" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L266" s="45"/>
-      <c r="M266" s="45"/>
+      <c r="L266" s="44"/>
+      <c r="M266" s="44"/>
       <c r="N266" s="20" t="s">
         <v>5</v>
       </c>
@@ -18858,10 +18858,10 @@
       <c r="L294" s="13"/>
       <c r="M294" s="12"/>
       <c r="N294" s="14"/>
-      <c r="O294" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P294" s="44"/>
+      <c r="O294" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P294" s="45"/>
       <c r="Q294" s="15"/>
       <c r="R294" s="11"/>
       <c r="S294" s="16"/>
@@ -18882,11 +18882,11 @@
       </c>
       <c r="I295" s="11"/>
       <c r="J295" s="18"/>
-      <c r="K295" s="45" t="s">
+      <c r="K295" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L295" s="45"/>
-      <c r="M295" s="45"/>
+      <c r="L295" s="44"/>
+      <c r="M295" s="44"/>
       <c r="N295" s="20" t="s">
         <v>5</v>
       </c>
@@ -20584,10 +20584,10 @@
       <c r="L323" s="13"/>
       <c r="M323" s="12"/>
       <c r="N323" s="14"/>
-      <c r="O323" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P323" s="44"/>
+      <c r="O323" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P323" s="45"/>
       <c r="Q323" s="15"/>
       <c r="R323" s="11"/>
       <c r="S323" s="16"/>
@@ -20608,11 +20608,11 @@
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="18"/>
-      <c r="K324" s="45" t="s">
+      <c r="K324" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L324" s="45"/>
-      <c r="M324" s="45"/>
+      <c r="L324" s="44"/>
+      <c r="M324" s="44"/>
       <c r="N324" s="20" t="s">
         <v>5</v>
       </c>
@@ -22312,10 +22312,10 @@
       <c r="L352" s="13"/>
       <c r="M352" s="12"/>
       <c r="N352" s="14"/>
-      <c r="O352" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P352" s="44"/>
+      <c r="O352" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P352" s="45"/>
       <c r="Q352" s="15"/>
       <c r="R352" s="11"/>
       <c r="S352" s="16"/>
@@ -22336,11 +22336,11 @@
       </c>
       <c r="I353" s="11"/>
       <c r="J353" s="18"/>
-      <c r="K353" s="45" t="s">
+      <c r="K353" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L353" s="45"/>
-      <c r="M353" s="45"/>
+      <c r="L353" s="44"/>
+      <c r="M353" s="44"/>
       <c r="N353" s="20" t="s">
         <v>5</v>
       </c>
@@ -24038,10 +24038,10 @@
       <c r="L381" s="13"/>
       <c r="M381" s="12"/>
       <c r="N381" s="14"/>
-      <c r="O381" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P381" s="44"/>
+      <c r="O381" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P381" s="45"/>
       <c r="Q381" s="15"/>
       <c r="R381" s="11"/>
       <c r="S381" s="16"/>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="18"/>
-      <c r="K382" s="45" t="s">
+      <c r="K382" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L382" s="45"/>
-      <c r="M382" s="45"/>
+      <c r="L382" s="44"/>
+      <c r="M382" s="44"/>
       <c r="N382" s="20" t="s">
         <v>5</v>
       </c>
@@ -25764,10 +25764,10 @@
       <c r="L410" s="13"/>
       <c r="M410" s="12"/>
       <c r="N410" s="14"/>
-      <c r="O410" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P410" s="44"/>
+      <c r="O410" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P410" s="45"/>
       <c r="Q410" s="15"/>
       <c r="R410" s="11"/>
       <c r="S410" s="16"/>
@@ -25788,11 +25788,11 @@
       </c>
       <c r="I411" s="11"/>
       <c r="J411" s="18"/>
-      <c r="K411" s="45" t="s">
+      <c r="K411" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L411" s="45"/>
-      <c r="M411" s="45"/>
+      <c r="L411" s="44"/>
+      <c r="M411" s="44"/>
       <c r="N411" s="20" t="s">
         <v>5</v>
       </c>
@@ -27490,10 +27490,10 @@
       <c r="L439" s="13"/>
       <c r="M439" s="12"/>
       <c r="N439" s="14"/>
-      <c r="O439" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P439" s="44"/>
+      <c r="O439" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P439" s="45"/>
       <c r="Q439" s="15"/>
       <c r="R439" s="11"/>
       <c r="S439" s="16"/>
@@ -27514,11 +27514,11 @@
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="18"/>
-      <c r="K440" s="45" t="s">
+      <c r="K440" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L440" s="45"/>
-      <c r="M440" s="45"/>
+      <c r="L440" s="44"/>
+      <c r="M440" s="44"/>
       <c r="N440" s="20" t="s">
         <v>5</v>
       </c>
@@ -29215,10 +29215,10 @@
       <c r="L468" s="13"/>
       <c r="M468" s="12"/>
       <c r="N468" s="14"/>
-      <c r="O468" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P468" s="44"/>
+      <c r="O468" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P468" s="45"/>
       <c r="Q468" s="15"/>
       <c r="R468" s="11"/>
       <c r="S468" s="16"/>
@@ -29239,11 +29239,11 @@
       </c>
       <c r="I469" s="11"/>
       <c r="J469" s="18"/>
-      <c r="K469" s="45" t="s">
+      <c r="K469" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L469" s="45"/>
-      <c r="M469" s="45"/>
+      <c r="L469" s="44"/>
+      <c r="M469" s="44"/>
       <c r="N469" s="20" t="s">
         <v>5</v>
       </c>
@@ -29598,10 +29598,10 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="K475" s="34">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="L475" s="34">
-        <v>1.79</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M475" s="34">
         <v>2.5499999999999998</v>
@@ -30941,10 +30941,10 @@
       <c r="L497" s="13"/>
       <c r="M497" s="12"/>
       <c r="N497" s="14"/>
-      <c r="O497" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P497" s="44"/>
+      <c r="O497" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P497" s="45"/>
       <c r="Q497" s="15"/>
       <c r="R497" s="11"/>
       <c r="S497" s="16"/>
@@ -30965,11 +30965,11 @@
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="18"/>
-      <c r="K498" s="45" t="s">
+      <c r="K498" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L498" s="45"/>
-      <c r="M498" s="45"/>
+      <c r="L498" s="44"/>
+      <c r="M498" s="44"/>
       <c r="N498" s="20" t="s">
         <v>5</v>
       </c>
@@ -32667,10 +32667,10 @@
       <c r="L526" s="13"/>
       <c r="M526" s="12"/>
       <c r="N526" s="14"/>
-      <c r="O526" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P526" s="44"/>
+      <c r="O526" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P526" s="45"/>
       <c r="Q526" s="15"/>
       <c r="R526" s="11"/>
       <c r="S526" s="16"/>
@@ -32691,11 +32691,11 @@
       </c>
       <c r="I527" s="11"/>
       <c r="J527" s="18"/>
-      <c r="K527" s="45" t="s">
+      <c r="K527" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L527" s="45"/>
-      <c r="M527" s="45"/>
+      <c r="L527" s="44"/>
+      <c r="M527" s="44"/>
       <c r="N527" s="20" t="s">
         <v>5</v>
       </c>
@@ -34393,10 +34393,10 @@
       <c r="L555" s="13"/>
       <c r="M555" s="12"/>
       <c r="N555" s="14"/>
-      <c r="O555" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P555" s="44"/>
+      <c r="O555" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P555" s="45"/>
       <c r="Q555" s="15"/>
       <c r="R555" s="11"/>
       <c r="S555" s="16"/>
@@ -34417,11 +34417,11 @@
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="18"/>
-      <c r="K556" s="45" t="s">
+      <c r="K556" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L556" s="45"/>
-      <c r="M556" s="45"/>
+      <c r="L556" s="44"/>
+      <c r="M556" s="44"/>
       <c r="N556" s="20" t="s">
         <v>5</v>
       </c>
@@ -36118,10 +36118,10 @@
       <c r="L584" s="13"/>
       <c r="M584" s="12"/>
       <c r="N584" s="14"/>
-      <c r="O584" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P584" s="44"/>
+      <c r="O584" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P584" s="45"/>
       <c r="Q584" s="15"/>
       <c r="R584" s="11"/>
       <c r="S584" s="16"/>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="I585" s="11"/>
       <c r="J585" s="18"/>
-      <c r="K585" s="45" t="s">
+      <c r="K585" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L585" s="45"/>
-      <c r="M585" s="45"/>
+      <c r="L585" s="44"/>
+      <c r="M585" s="44"/>
       <c r="N585" s="20" t="s">
         <v>5</v>
       </c>
@@ -37844,10 +37844,10 @@
       <c r="L613" s="13"/>
       <c r="M613" s="12"/>
       <c r="N613" s="14"/>
-      <c r="O613" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P613" s="44"/>
+      <c r="O613" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P613" s="45"/>
       <c r="Q613" s="15"/>
       <c r="R613" s="11"/>
       <c r="S613" s="16"/>
@@ -37868,11 +37868,11 @@
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="18"/>
-      <c r="K614" s="45" t="s">
+      <c r="K614" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L614" s="45"/>
-      <c r="M614" s="45"/>
+      <c r="L614" s="44"/>
+      <c r="M614" s="44"/>
       <c r="N614" s="20" t="s">
         <v>5</v>
       </c>
@@ -39570,10 +39570,10 @@
       <c r="L642" s="13"/>
       <c r="M642" s="12"/>
       <c r="N642" s="14"/>
-      <c r="O642" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P642" s="44"/>
+      <c r="O642" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P642" s="45"/>
       <c r="Q642" s="15"/>
       <c r="R642" s="11"/>
       <c r="S642" s="16"/>
@@ -39594,11 +39594,11 @@
       </c>
       <c r="I643" s="11"/>
       <c r="J643" s="18"/>
-      <c r="K643" s="45" t="s">
+      <c r="K643" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L643" s="45"/>
-      <c r="M643" s="45"/>
+      <c r="L643" s="44"/>
+      <c r="M643" s="44"/>
       <c r="N643" s="20" t="s">
         <v>5</v>
       </c>
@@ -41296,10 +41296,10 @@
       <c r="L671" s="13"/>
       <c r="M671" s="12"/>
       <c r="N671" s="14"/>
-      <c r="O671" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P671" s="44"/>
+      <c r="O671" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P671" s="45"/>
       <c r="Q671" s="15"/>
       <c r="R671" s="11"/>
       <c r="S671" s="16"/>
@@ -41320,11 +41320,11 @@
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="18"/>
-      <c r="K672" s="45" t="s">
+      <c r="K672" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L672" s="45"/>
-      <c r="M672" s="45"/>
+      <c r="L672" s="44"/>
+      <c r="M672" s="44"/>
       <c r="N672" s="20" t="s">
         <v>5</v>
       </c>
@@ -43022,10 +43022,10 @@
       <c r="L700" s="13"/>
       <c r="M700" s="12"/>
       <c r="N700" s="14"/>
-      <c r="O700" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P700" s="44"/>
+      <c r="O700" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P700" s="45"/>
       <c r="Q700" s="15"/>
       <c r="R700" s="11"/>
       <c r="S700" s="16"/>
@@ -43046,11 +43046,11 @@
       </c>
       <c r="I701" s="11"/>
       <c r="J701" s="18"/>
-      <c r="K701" s="45" t="s">
+      <c r="K701" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L701" s="45"/>
-      <c r="M701" s="45"/>
+      <c r="L701" s="44"/>
+      <c r="M701" s="44"/>
       <c r="N701" s="20" t="s">
         <v>5</v>
       </c>
@@ -44795,10 +44795,10 @@
       <c r="L729" s="13"/>
       <c r="M729" s="12"/>
       <c r="N729" s="14"/>
-      <c r="O729" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P729" s="44"/>
+      <c r="O729" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P729" s="45"/>
       <c r="Q729" s="15"/>
       <c r="R729" s="11"/>
       <c r="S729" s="16"/>
@@ -44819,11 +44819,11 @@
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="18"/>
-      <c r="K730" s="45" t="s">
+      <c r="K730" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L730" s="45"/>
-      <c r="M730" s="45"/>
+      <c r="L730" s="44"/>
+      <c r="M730" s="44"/>
       <c r="N730" s="20" t="s">
         <v>5</v>
       </c>
@@ -46524,10 +46524,10 @@
       <c r="L758" s="13"/>
       <c r="M758" s="12"/>
       <c r="N758" s="14"/>
-      <c r="O758" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P758" s="44"/>
+      <c r="O758" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P758" s="45"/>
       <c r="Q758" s="15"/>
       <c r="R758" s="11"/>
       <c r="S758" s="16"/>
@@ -46548,11 +46548,11 @@
       </c>
       <c r="I759" s="11"/>
       <c r="J759" s="18"/>
-      <c r="K759" s="45" t="s">
+      <c r="K759" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L759" s="45"/>
-      <c r="M759" s="45"/>
+      <c r="L759" s="44"/>
+      <c r="M759" s="44"/>
       <c r="N759" s="20" t="s">
         <v>5</v>
       </c>
@@ -48205,78 +48205,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="O236:P236"/>
-    <mergeCell ref="K237:M237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="O265:P265"/>
-    <mergeCell ref="K266:M266"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="K295:M295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O323:P323"/>
-    <mergeCell ref="K324:M324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="K353:M353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="O381:P381"/>
-    <mergeCell ref="K382:M382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="K411:M411"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="K440:M440"/>
-    <mergeCell ref="Q440:R440"/>
-    <mergeCell ref="O468:P468"/>
-    <mergeCell ref="K469:M469"/>
-    <mergeCell ref="Q469:R469"/>
-    <mergeCell ref="O497:P497"/>
-    <mergeCell ref="K498:M498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="O526:P526"/>
-    <mergeCell ref="K527:M527"/>
-    <mergeCell ref="Q527:R527"/>
-    <mergeCell ref="O555:P555"/>
-    <mergeCell ref="K556:M556"/>
-    <mergeCell ref="Q556:R556"/>
-    <mergeCell ref="O584:P584"/>
-    <mergeCell ref="K585:M585"/>
-    <mergeCell ref="Q585:R585"/>
-    <mergeCell ref="O613:P613"/>
-    <mergeCell ref="K614:M614"/>
-    <mergeCell ref="Q614:R614"/>
-    <mergeCell ref="O642:P642"/>
-    <mergeCell ref="K643:M643"/>
-    <mergeCell ref="Q643:R643"/>
-    <mergeCell ref="O671:P671"/>
-    <mergeCell ref="K672:M672"/>
-    <mergeCell ref="Q672:R672"/>
     <mergeCell ref="O758:P758"/>
     <mergeCell ref="K759:M759"/>
     <mergeCell ref="Q759:R759"/>
@@ -48286,6 +48214,78 @@
     <mergeCell ref="O729:P729"/>
     <mergeCell ref="K730:M730"/>
     <mergeCell ref="Q730:R730"/>
+    <mergeCell ref="O642:P642"/>
+    <mergeCell ref="K643:M643"/>
+    <mergeCell ref="Q643:R643"/>
+    <mergeCell ref="O671:P671"/>
+    <mergeCell ref="K672:M672"/>
+    <mergeCell ref="Q672:R672"/>
+    <mergeCell ref="O584:P584"/>
+    <mergeCell ref="K585:M585"/>
+    <mergeCell ref="Q585:R585"/>
+    <mergeCell ref="O613:P613"/>
+    <mergeCell ref="K614:M614"/>
+    <mergeCell ref="Q614:R614"/>
+    <mergeCell ref="O526:P526"/>
+    <mergeCell ref="K527:M527"/>
+    <mergeCell ref="Q527:R527"/>
+    <mergeCell ref="O555:P555"/>
+    <mergeCell ref="K556:M556"/>
+    <mergeCell ref="Q556:R556"/>
+    <mergeCell ref="O468:P468"/>
+    <mergeCell ref="K469:M469"/>
+    <mergeCell ref="Q469:R469"/>
+    <mergeCell ref="O497:P497"/>
+    <mergeCell ref="K498:M498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="K411:M411"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="K440:M440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="K353:M353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="O381:P381"/>
+    <mergeCell ref="K382:M382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="K295:M295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O323:P323"/>
+    <mergeCell ref="K324:M324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="O236:P236"/>
+    <mergeCell ref="K237:M237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="O265:P265"/>
+    <mergeCell ref="K266:M266"/>
+    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
